--- a/data/oia-activities.xlsx
+++ b/data/oia-activities.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\Project\B4W-19-01-CO-H2O\Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D700EC8-C522-419D-B637-57B2BD620D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6818B6-4D69-44B4-8BBE-D508C1EC4FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1320" windowWidth="15105" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="3135" windowWidth="20385" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
     <sheet name="oia-screener" sheetId="1" r:id="rId2"/>
+    <sheet name="co-oia-acts" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t>Riding motorcycles on the high</t>
   </si>
@@ -215,6 +216,90 @@
   </si>
   <si>
     <t>co-screener (see act_labs.xlsx)</t>
+  </si>
+  <si>
+    <t>These are defined at the OIA "act1" level</t>
+  </si>
+  <si>
+    <t>co-oia-acts</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>act1</t>
+  </si>
+  <si>
+    <t>mtr</t>
+  </si>
+  <si>
+    <t>motorcycle</t>
+  </si>
+  <si>
+    <t>off_road</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>snowmobile</t>
+  </si>
+  <si>
+    <t>rv</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>camp</t>
+  </si>
+  <si>
+    <t>nmtr</t>
+  </si>
+  <si>
+    <t>hike</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>nordic</t>
+  </si>
+  <si>
+    <t>alpine</t>
+  </si>
+  <si>
+    <t>paddle</t>
+  </si>
+  <si>
+    <t>scuba</t>
+  </si>
+  <si>
+    <t>sail</t>
+  </si>
+  <si>
+    <t>co_activity</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>trail</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>bike</t>
+  </si>
+  <si>
+    <t>Set of OIA activities, and whether they are targeted for the CO analysis</t>
   </si>
 </sst>
 </file>
@@ -555,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC9D545-0AC0-46D8-87EE-8CC3A8808601}">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,8 +683,22 @@
         <v>57</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -607,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,4 +1091,202 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722E72D4-EFA5-4319-8449-00F2BA5A6F25}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>